--- a/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2395294512989731</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03435562584869637</v>
+        <v>0.03435562584869638</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1782805091027602</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08832311401444853</v>
+        <v>0.08800370287987702</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1865970951145869</v>
+        <v>0.1869987889919147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1888325249124123</v>
+        <v>0.1876005175799065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01819433456568274</v>
+        <v>0.01903347852565858</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1296848644063978</v>
+        <v>0.1353837051015848</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3574631419302334</v>
+        <v>0.3529211994021298</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2710351117377066</v>
+        <v>0.2745674811542854</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03807387970634119</v>
+        <v>0.03975622795428266</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1233609762184906</v>
+        <v>0.11977649274976</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2831726285162435</v>
+        <v>0.2845797505692144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2402783973934487</v>
+        <v>0.2436222496930534</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03250764396068494</v>
+        <v>0.03227443616478669</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1715204127015397</v>
+        <v>0.1777135840342378</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2828048569769266</v>
+        <v>0.2847178590239612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2935757560842729</v>
+        <v>0.2953131776720074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05554274615865722</v>
+        <v>0.05750927140500486</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2306533107600804</v>
+        <v>0.2298296582993529</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4805442509487907</v>
+        <v>0.4820106724629065</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3772843682436569</v>
+        <v>0.3881159504140193</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07354306738183471</v>
+        <v>0.07562853410269677</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1810118202376125</v>
+        <v>0.1831284335474312</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3668415339866143</v>
+        <v>0.3693564989079733</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3238122419786605</v>
+        <v>0.3170104426946319</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0586955877954054</v>
+        <v>0.05948901724266713</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1885480887057262</v>
+        <v>0.1873634791231369</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0839571147977362</v>
+        <v>0.08364011220303251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03814928855603188</v>
+        <v>0.03771117762462091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09222968225389867</v>
+        <v>0.09405831098084035</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3075155049812859</v>
+        <v>0.3123447583318703</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1653862245777262</v>
+        <v>0.1673567409554277</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06917877169725484</v>
+        <v>0.06723531381534945</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.137144460066711</v>
+        <v>0.1373610705651802</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2605721843186779</v>
+        <v>0.2564555404541314</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1327618371278614</v>
+        <v>0.1335727325925631</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05817719848747473</v>
+        <v>0.05848135529176247</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1215696426100921</v>
+        <v>0.1220570189584774</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2646966461245949</v>
+        <v>0.2632335972700949</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1445340917743536</v>
+        <v>0.1440573083114286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07713305046215861</v>
+        <v>0.07859283288143834</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1601223347140505</v>
+        <v>0.1657408820424577</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3938390235338542</v>
+        <v>0.3927789733284446</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2400176945625369</v>
+        <v>0.2385374751552408</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1192222550398316</v>
+        <v>0.1228587606402059</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1969109613915717</v>
+        <v>0.194230137765336</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3176989577703825</v>
+        <v>0.3140936017002529</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1800897336139222</v>
+        <v>0.1813609947910148</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09116205519272716</v>
+        <v>0.09042753948296597</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1677706488338181</v>
+        <v>0.1673622495235083</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03670853258080378</v>
+        <v>0.03720732750963493</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1057336746208853</v>
+        <v>0.1055337911883433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0889568700587972</v>
+        <v>0.09015787711563203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06096176932473019</v>
+        <v>0.06062356474246722</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06267343696541761</v>
+        <v>0.06353832593371289</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1840260834786507</v>
+        <v>0.1794945928702306</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.114563069430197</v>
+        <v>0.1132414894620096</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1134935909935661</v>
+        <v>0.1140767776263199</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05770975568898661</v>
+        <v>0.05577663366292865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1564512154433066</v>
+        <v>0.1574491618896002</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1122882973026431</v>
+        <v>0.1106898840702045</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0954162997463479</v>
+        <v>0.0955549813889664</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09196806721552818</v>
+        <v>0.09212273420984815</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1796729138004395</v>
+        <v>0.1808449411050334</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1587464496845186</v>
+        <v>0.1619911229647229</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1181087529677863</v>
+        <v>0.1160300342032293</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1240268366450156</v>
+        <v>0.1221891753842286</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2747011949004357</v>
+        <v>0.2722208619163721</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1930284778665692</v>
+        <v>0.1960836228864461</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1722289267932573</v>
+        <v>0.1712490122311019</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1005170671098263</v>
+        <v>0.09809339753000071</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2143696301181835</v>
+        <v>0.2160257888451021</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1639065790733271</v>
+        <v>0.1613147499097822</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1360279372618705</v>
+        <v>0.136096879084535</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2222702484762684</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1583418765075685</v>
+        <v>0.1583418765075684</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09911567638606664</v>
+        <v>0.09674496738762822</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1370779107857321</v>
+        <v>0.1368680519426158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1412397551539742</v>
+        <v>0.1401772405016554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1047957712571551</v>
+        <v>0.1022535536479182</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1488000674065897</v>
+        <v>0.1487104988298632</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3113156316473327</v>
+        <v>0.3101175123717532</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2217876347570834</v>
+        <v>0.2234428626935166</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1442236449852548</v>
+        <v>0.1432829283499389</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1315800690991268</v>
+        <v>0.1336702175342537</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2375990036860679</v>
+        <v>0.2388613584330866</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1919147734663757</v>
+        <v>0.194131273074482</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.135327002502995</v>
+        <v>0.1347002527753211</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.175385349343293</v>
+        <v>0.1639153960768961</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2233700538575383</v>
+        <v>0.2260252859301255</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2229457270404176</v>
+        <v>0.216329676762252</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1916916084760728</v>
+        <v>0.1930635374764766</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2299732348747305</v>
+        <v>0.227559497329427</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4093840920065358</v>
+        <v>0.4046033032316892</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3153207911439666</v>
+        <v>0.315577743859321</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2103965559592849</v>
+        <v>0.2135864204450468</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1842211515145676</v>
+        <v>0.1843815918078942</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.304158732526822</v>
+        <v>0.3026696488745081</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2554166446373574</v>
+        <v>0.2568491106054384</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1924305271659203</v>
+        <v>0.1860044862201053</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.192757931572423</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3727302689223402</v>
+        <v>0.3727302689223403</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3216996051210618</v>
@@ -1229,7 +1229,7 @@
         <v>0.2273720314578758</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.478716063226025</v>
+        <v>0.4787160632260249</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2829447966536052</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1874465647519745</v>
+        <v>0.1885466128970208</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07187189024293558</v>
+        <v>0.0676543914719453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1438754343534119</v>
+        <v>0.1424686710458269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3154860898438775</v>
+        <v>0.3159399474305985</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2576553110977285</v>
+        <v>0.2630728235021331</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.208411458466391</v>
+        <v>0.2000161034655656</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1709356147599388</v>
+        <v>0.1741294601566718</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4296326108185141</v>
+        <v>0.4296064213937301</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2401776442067978</v>
+        <v>0.2426174862243647</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1504307922856217</v>
+        <v>0.1522911575474206</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1721305381111613</v>
+        <v>0.1723382172885683</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3845227561659666</v>
+        <v>0.3883540714666439</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3068029794888611</v>
+        <v>0.3016753615629845</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1562120272040707</v>
+        <v>0.1563710437281987</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2550716816658068</v>
+        <v>0.245201661366656</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4303857832586341</v>
+        <v>0.42888715914031</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3920048704451598</v>
+        <v>0.3909134745705436</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3310173843142134</v>
+        <v>0.3240939016097293</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2841014079914135</v>
+        <v>0.289448084607912</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5272834448025547</v>
+        <v>0.5244720189455426</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3293944845480399</v>
+        <v>0.3295171661343166</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2269639008344606</v>
+        <v>0.2283364986937271</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2517024189552853</v>
+        <v>0.2480938880936868</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4648346325904481</v>
+        <v>0.4668377043922237</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1899046304021297</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1527338051296596</v>
+        <v>0.1527338051296595</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.120881556365514</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0675923379916484</v>
+        <v>0.06720043747414362</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1014858651175149</v>
+        <v>0.09623744338822941</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07640712123547616</v>
+        <v>0.07194064012495945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09502950826171366</v>
+        <v>0.09229729881660792</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1058186233355337</v>
+        <v>0.1039151273285767</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1826109448136501</v>
+        <v>0.180064844132243</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1398160816584629</v>
+        <v>0.1456439591036955</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1232186790256155</v>
+        <v>0.1237039529724388</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09654137186055882</v>
+        <v>0.09717767913783568</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1567708962743143</v>
+        <v>0.1501865106625872</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1196044156585729</v>
+        <v>0.1188575557091489</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1156947938544419</v>
+        <v>0.1161338094444938</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1380386065388736</v>
+        <v>0.1382240851310694</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1870501796161896</v>
+        <v>0.19414838033591</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1491997562829382</v>
+        <v>0.1450083477656924</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1666202862173038</v>
+        <v>0.16390219498845</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1886416876193374</v>
+        <v>0.1817475562265802</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2863715790624884</v>
+        <v>0.2833264800005156</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2395307595876335</v>
+        <v>0.2417394965054374</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1856668623681388</v>
+        <v>0.1859626033935619</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1497443947430066</v>
+        <v>0.1513208508028304</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2219680250527976</v>
+        <v>0.2192234234582465</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1827059599833792</v>
+        <v>0.1845533587200271</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1631357380056956</v>
+        <v>0.162426111773324</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09169420194934214</v>
+        <v>0.09154809771032105</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1418665318863305</v>
+        <v>0.142482636246489</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1044650690163674</v>
+        <v>0.1060668955735703</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1451778208898163</v>
+        <v>0.1442292335607624</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1436734598099275</v>
+        <v>0.141452968306699</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2010240906734211</v>
+        <v>0.201465270983029</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1446244077277631</v>
+        <v>0.1423413724373471</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2379682854379452</v>
+        <v>0.2369583491309366</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1253051123680969</v>
+        <v>0.1273950038605563</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1810962705050868</v>
+        <v>0.1807493755602755</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1330504404624866</v>
+        <v>0.1340342859959577</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2021843746970793</v>
+        <v>0.2016959218368092</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1453919388955839</v>
+        <v>0.143144209402199</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2016000875607737</v>
+        <v>0.2041717082109001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1608444619087934</v>
+        <v>0.1648761668445382</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.211577227070902</v>
+        <v>0.210786661709702</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2037721197492207</v>
+        <v>0.2024363131468167</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2664889362735857</v>
+        <v>0.2695655621645426</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2025205062455824</v>
+        <v>0.2040212368733904</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2997553491257984</v>
+        <v>0.299280806693183</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1643847817537463</v>
+        <v>0.1689269292775802</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2246040932158787</v>
+        <v>0.2250055047821274</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1743058027795453</v>
+        <v>0.1741074078609235</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2456791915213447</v>
+        <v>0.2469336700397726</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2298990910000643</v>
+        <v>0.2296597208656415</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1416966091095546</v>
+        <v>0.1411737601399785</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03502895947259823</v>
+        <v>0.0358867936038511</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07858663809427711</v>
+        <v>0.07770384343020169</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2455089214964949</v>
+        <v>0.2489776311380919</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2059281471280043</v>
+        <v>0.2090198032039804</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06846533361491859</v>
+        <v>0.06975648760039992</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1494051495620912</v>
+        <v>0.1505899214649133</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2501115225010033</v>
+        <v>0.2475036823901527</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1825903327164783</v>
+        <v>0.1829824024488743</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05675287087186712</v>
+        <v>0.05677272770268955</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1205698239819937</v>
+        <v>0.1216225692362044</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2949051397240295</v>
+        <v>0.2995511408170826</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1989890211409764</v>
+        <v>0.1967424670897311</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06768633261911876</v>
+        <v>0.06602216877708748</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1189087880735443</v>
+        <v>0.1183928432573807</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3158721428021944</v>
+        <v>0.3154913998288806</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.268660080820962</v>
+        <v>0.2674719585163415</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1111150469357718</v>
+        <v>0.1127826234389877</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1923857059901464</v>
+        <v>0.195786753547074</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2952258484970199</v>
+        <v>0.2930034804331542</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2245415442228752</v>
+        <v>0.2244227251686486</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08365943646881512</v>
+        <v>0.08240178586440178</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1530969938299201</v>
+        <v>0.1510740926500766</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1571331394633096</v>
+        <v>0.1563629429276997</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1461414882835254</v>
+        <v>0.1457447627683338</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.105315346709562</v>
+        <v>0.1062211172855386</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1233279506066189</v>
+        <v>0.1221636551430526</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.210384891240275</v>
+        <v>0.2091322624071572</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2437102575836465</v>
+        <v>0.2434655870396273</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1542823295947563</v>
+        <v>0.1543303642903767</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1830116646000415</v>
+        <v>0.184231806500061</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1874173572021005</v>
+        <v>0.1877449710806427</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1981024522088322</v>
+        <v>0.199139484007809</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.133491249457183</v>
+        <v>0.1337071787046353</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1574095240172502</v>
+        <v>0.1569161472585161</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1824861217724765</v>
+        <v>0.18335927958011</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1722565762043962</v>
+        <v>0.1707492341819081</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1275592171481791</v>
+        <v>0.1271504581395674</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1464037767005659</v>
+        <v>0.1460348062078742</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2384856621983439</v>
+        <v>0.2383821800776008</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2740916696462549</v>
+        <v>0.2750677255984657</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1799856032469812</v>
+        <v>0.1797888831277621</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2045589053288415</v>
+        <v>0.2061741580643964</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2081368771182676</v>
+        <v>0.2077324527852897</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2191303349972543</v>
+        <v>0.2188135744308203</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1505709002504345</v>
+        <v>0.1508164330367461</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1738022761110998</v>
+        <v>0.1731799728857384</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24113</v>
+        <v>24026</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>54997</v>
+        <v>55116</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>55472</v>
+        <v>55110</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5801</v>
+        <v>6069</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33827</v>
+        <v>35313</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>102308</v>
+        <v>101008</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>78249</v>
+        <v>79268</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12034</v>
+        <v>12565</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>65856</v>
+        <v>63942</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>164507</v>
+        <v>165325</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>139954</v>
+        <v>141901</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>20639</v>
+        <v>20491</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>46827</v>
+        <v>48518</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>83353</v>
+        <v>83917</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>86241</v>
+        <v>86751</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17710</v>
+        <v>18337</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60163</v>
+        <v>59948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>137535</v>
+        <v>137954</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>108923</v>
+        <v>112050</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23244</v>
+        <v>23903</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>96633</v>
+        <v>97763</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>213114</v>
+        <v>214575</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>188609</v>
+        <v>184647</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37266</v>
+        <v>37770</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>92968</v>
+        <v>92384</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42443</v>
+        <v>42282</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19129</v>
+        <v>18909</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>48941</v>
+        <v>49912</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>154972</v>
+        <v>157406</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>85968</v>
+        <v>86992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36105</v>
+        <v>35091</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>74949</v>
+        <v>75067</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>259797</v>
+        <v>255692</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>136125</v>
+        <v>136956</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>59535</v>
+        <v>59847</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>130948</v>
+        <v>131473</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>130515</v>
+        <v>129794</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>73066</v>
+        <v>72825</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38677</v>
+        <v>39409</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>84968</v>
+        <v>87950</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>198475</v>
+        <v>197941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>124762</v>
+        <v>123992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>62224</v>
+        <v>64122</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>107611</v>
+        <v>106146</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>316753</v>
+        <v>313159</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>184651</v>
+        <v>185955</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>93290</v>
+        <v>92539</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>180713</v>
+        <v>180273</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11704</v>
+        <v>11863</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34263</v>
+        <v>34198</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>28339</v>
+        <v>28721</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19263</v>
+        <v>19157</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>21021</v>
+        <v>21312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>62757</v>
+        <v>61211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>38309</v>
+        <v>37867</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>40382</v>
+        <v>40590</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37757</v>
+        <v>36492</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>104050</v>
+        <v>104714</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>73320</v>
+        <v>72276</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>64101</v>
+        <v>64194</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29324</v>
+        <v>29373</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>58222</v>
+        <v>58602</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50571</v>
+        <v>51605</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>37322</v>
+        <v>36665</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>41600</v>
+        <v>40984</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>93679</v>
+        <v>92833</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64548</v>
+        <v>65569</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>61281</v>
+        <v>60933</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65764</v>
+        <v>64178</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>142570</v>
+        <v>143671</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>107024</v>
+        <v>105332</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>91384</v>
+        <v>91431</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>35550</v>
+        <v>34700</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>50991</v>
+        <v>50913</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52254</v>
+        <v>51861</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>39013</v>
+        <v>38067</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>55273</v>
+        <v>55239</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>121087</v>
+        <v>120621</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>85504</v>
+        <v>86142</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>60857</v>
+        <v>60460</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>96070</v>
+        <v>97596</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>180798</v>
+        <v>181758</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>144989</v>
+        <v>146663</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>107482</v>
+        <v>106984</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>62906</v>
+        <v>58792</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>83090</v>
+        <v>84078</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>82482</v>
+        <v>80034</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>71363</v>
+        <v>71873</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>85425</v>
+        <v>84528</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>159230</v>
+        <v>157371</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>121563</v>
+        <v>121662</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>88779</v>
+        <v>90125</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>134505</v>
+        <v>134622</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>231445</v>
+        <v>230312</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>192963</v>
+        <v>194046</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>152836</v>
+        <v>147732</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38109</v>
+        <v>38333</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15281</v>
+        <v>14385</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>30390</v>
+        <v>30092</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>64884</v>
+        <v>64978</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>53507</v>
+        <v>54632</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>45765</v>
+        <v>43922</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>37364</v>
+        <v>38062</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>97419</v>
+        <v>97413</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>98707</v>
+        <v>99710</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>65018</v>
+        <v>65822</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>73983</v>
+        <v>74072</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>166273</v>
+        <v>167930</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>62376</v>
+        <v>61333</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33213</v>
+        <v>33247</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>53876</v>
+        <v>51792</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>88515</v>
+        <v>88207</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>81407</v>
+        <v>81180</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>72688</v>
+        <v>71168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>62101</v>
+        <v>63270</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>119561</v>
+        <v>118924</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>135373</v>
+        <v>135424</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>98096</v>
+        <v>98689</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>108184</v>
+        <v>106633</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>201001</v>
+        <v>201867</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18305</v>
+        <v>18199</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>27805</v>
+        <v>26367</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20104</v>
+        <v>18929</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>25725</v>
+        <v>24986</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>29433</v>
+        <v>28903</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>50963</v>
+        <v>50252</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>38186</v>
+        <v>39778</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>32499</v>
+        <v>32627</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>52997</v>
+        <v>53346</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>86704</v>
+        <v>83062</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>64136</v>
+        <v>63736</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>61834</v>
+        <v>62069</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>37382</v>
+        <v>37433</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>51248</v>
+        <v>53193</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>39258</v>
+        <v>38155</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>45105</v>
+        <v>44369</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>52470</v>
+        <v>50552</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>79921</v>
+        <v>79071</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>65419</v>
+        <v>66023</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>48970</v>
+        <v>49048</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>82203</v>
+        <v>83068</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>122762</v>
+        <v>121244</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>97974</v>
+        <v>98965</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>87189</v>
+        <v>86810</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>56394</v>
+        <v>56305</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>94027</v>
+        <v>94436</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>68587</v>
+        <v>69639</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>104483</v>
+        <v>103800</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>91695</v>
+        <v>90278</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>139284</v>
+        <v>139589</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>99794</v>
+        <v>98219</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>183725</v>
+        <v>182945</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>157038</v>
+        <v>159657</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>245505</v>
+        <v>245035</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>179163</v>
+        <v>180488</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>301607</v>
+        <v>300879</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>89420</v>
+        <v>88038</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>133618</v>
+        <v>135323</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>105604</v>
+        <v>108251</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>152269</v>
+        <v>151700</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>130051</v>
+        <v>129199</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>184642</v>
+        <v>186774</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>139744</v>
+        <v>140779</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>231428</v>
+        <v>231062</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>206015</v>
+        <v>211707</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>304487</v>
+        <v>305031</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>234717</v>
+        <v>234450</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>366490</v>
+        <v>368362</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>170998</v>
+        <v>170820</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>110235</v>
+        <v>109829</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>27237</v>
+        <v>27904</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>62718</v>
+        <v>62013</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>192359</v>
+        <v>195077</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>169435</v>
+        <v>171979</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>56564</v>
+        <v>57631</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>124205</v>
+        <v>125190</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>381997</v>
+        <v>378014</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>292282</v>
+        <v>292910</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>91016</v>
+        <v>91048</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>196457</v>
+        <v>198172</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>219349</v>
+        <v>222805</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>154807</v>
+        <v>153059</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>52630</v>
+        <v>51336</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>94898</v>
+        <v>94486</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>247489</v>
+        <v>247191</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>221051</v>
+        <v>220073</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>91800</v>
+        <v>93177</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>159936</v>
+        <v>162764</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>450900</v>
+        <v>447506</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>359436</v>
+        <v>359246</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>134167</v>
+        <v>132150</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>249457</v>
+        <v>246161</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>514853</v>
+        <v>512330</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>500337</v>
+        <v>498979</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>357249</v>
+        <v>360321</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>435581</v>
+        <v>431469</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>710932</v>
+        <v>706699</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>865247</v>
+        <v>864378</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>545916</v>
+        <v>546086</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>683405</v>
+        <v>687962</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1247401</v>
+        <v>1249582</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1381559</v>
+        <v>1388791</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>925175</v>
+        <v>926672</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1143755</v>
+        <v>1140170</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>597924</v>
+        <v>600785</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>589746</v>
+        <v>584586</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>432704</v>
+        <v>431317</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>517083</v>
+        <v>515780</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>805890</v>
+        <v>805540</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>973110</v>
+        <v>976576</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>636866</v>
+        <v>636169</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>763867</v>
+        <v>769899</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1385305</v>
+        <v>1382613</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1528206</v>
+        <v>1525997</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1043547</v>
+        <v>1045249</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1262867</v>
+        <v>1258345</v>
       </c>
     </row>
     <row r="40">
